--- a/Arabic dataset with manual KP with categories/statistics.xlsx
+++ b/Arabic dataset with manual KP with categories/statistics.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mlogm\Documents\GitHub\ArabicDataset\ArabicDataset\Arabic dataset with manual KP with categories\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="19" r:id="rId1"/>
@@ -30,7 +35,7 @@
   <definedNames>
     <definedName name="_GoBack" localSheetId="0">Index!$E$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1576,7 +1581,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1605,7 +1610,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1621,6 +1626,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE6EED5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1725,7 +1736,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1789,6 +1800,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1798,6 +1810,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1846,7 +1861,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1881,7 +1896,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2093,19 +2108,19 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="43.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" customWidth="1"/>
-    <col min="6" max="7" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="43.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="7" width="18.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>470</v>
       </c>
@@ -2128,7 +2143,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2152,7 +2167,7 @@
         <v>4990.6410256410254</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="12">
         <v>2</v>
       </c>
@@ -2176,7 +2191,7 @@
         <v>4171.681818181818</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -2200,7 +2215,7 @@
         <v>7365.6034482758623</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="12">
         <v>4</v>
       </c>
@@ -2224,7 +2239,7 @@
         <v>2450.4</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -2249,7 +2264,7 @@
       </c>
       <c r="H6" s="20"/>
     </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12">
         <v>6</v>
       </c>
@@ -2273,7 +2288,7 @@
         <v>5459.3448275862065</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -2297,7 +2312,7 @@
         <v>2459.4761904761904</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12">
         <v>8</v>
       </c>
@@ -2321,7 +2336,7 @@
         <v>4236.833333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -2345,7 +2360,7 @@
         <v>3164.7272727272725</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="12">
         <v>10</v>
       </c>
@@ -2369,7 +2384,7 @@
         <v>2555.6999999999998</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2393,7 +2408,7 @@
         <v>2353.4166666666665</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="12">
         <v>12</v>
       </c>
@@ -2417,7 +2432,7 @@
         <v>3257.55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2441,7 +2456,7 @@
         <v>3766</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="12">
         <v>14</v>
       </c>
@@ -2465,7 +2480,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -2489,7 +2504,7 @@
         <v>1988.875</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="12">
         <v>16</v>
       </c>
@@ -2513,7 +2528,7 @@
         <v>4698.3898305084749</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -2537,7 +2552,7 @@
         <v>5959.5625</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12">
         <v>18</v>
       </c>
@@ -2561,7 +2576,7 @@
         <v>2576.8333333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="21"/>
       <c r="B20" s="22"/>
       <c r="C20" s="18" t="s">
@@ -2595,12 +2610,12 @@
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2614,7 +2629,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>374</v>
       </c>
@@ -2628,7 +2643,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>656</v>
       </c>
@@ -2642,7 +2657,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1346</v>
       </c>
@@ -2656,7 +2671,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1685</v>
       </c>
@@ -2670,7 +2685,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1749</v>
       </c>
@@ -2684,7 +2699,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3160</v>
       </c>
@@ -2698,7 +2713,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3178</v>
       </c>
@@ -2712,7 +2727,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4330</v>
       </c>
@@ -2726,7 +2741,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4729</v>
       </c>
@@ -2740,7 +2755,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>6015</v>
       </c>
@@ -2754,7 +2769,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>7590</v>
       </c>
@@ -2768,25 +2783,37 @@
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>386</v>
       </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D16">
@@ -2801,12 +2828,12 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A12" sqref="A12:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -2820,7 +2847,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>341</v>
       </c>
@@ -2834,7 +2861,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>508</v>
       </c>
@@ -2848,7 +2875,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>650</v>
       </c>
@@ -2862,7 +2889,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>682</v>
       </c>
@@ -2876,7 +2903,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1236</v>
       </c>
@@ -2890,7 +2917,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1659</v>
       </c>
@@ -2904,7 +2931,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2021</v>
       </c>
@@ -2918,7 +2945,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4161</v>
       </c>
@@ -2932,7 +2959,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6419</v>
       </c>
@@ -2946,7 +2973,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>7880</v>
       </c>
@@ -2960,25 +2987,37 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>143</v>
       </c>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D15">
@@ -2993,12 +3032,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A14" sqref="A14:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3012,7 +3051,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>172</v>
       </c>
@@ -3026,7 +3065,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>487</v>
       </c>
@@ -3040,7 +3079,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>652</v>
       </c>
@@ -3054,7 +3093,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>693</v>
       </c>
@@ -3068,7 +3107,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1053</v>
       </c>
@@ -3082,7 +3121,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1468</v>
       </c>
@@ -3096,7 +3135,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1952</v>
       </c>
@@ -3110,7 +3149,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2276</v>
       </c>
@@ -3124,7 +3163,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2505</v>
       </c>
@@ -3138,7 +3177,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2685</v>
       </c>
@@ -3152,7 +3191,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2762</v>
       </c>
@@ -3166,7 +3205,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11536</v>
       </c>
@@ -3180,25 +3219,37 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>175</v>
       </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D17">
@@ -3213,12 +3264,12 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A22" sqref="A22:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3232,7 +3283,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>231</v>
       </c>
@@ -3246,7 +3297,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>287</v>
       </c>
@@ -3260,7 +3311,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>349</v>
       </c>
@@ -3274,7 +3325,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>461</v>
       </c>
@@ -3288,7 +3339,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>485</v>
       </c>
@@ -3302,7 +3353,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>627</v>
       </c>
@@ -3316,7 +3367,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>672</v>
       </c>
@@ -3330,7 +3381,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1120</v>
       </c>
@@ -3344,7 +3395,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1963</v>
       </c>
@@ -3358,7 +3409,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2135</v>
       </c>
@@ -3372,7 +3423,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3703</v>
       </c>
@@ -3386,7 +3437,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>4259</v>
       </c>
@@ -3400,7 +3451,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>5142</v>
       </c>
@@ -3414,7 +3465,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5210</v>
       </c>
@@ -3428,7 +3479,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>5449</v>
       </c>
@@ -3442,7 +3493,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5522</v>
       </c>
@@ -3456,7 +3507,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>5572</v>
       </c>
@@ -3470,7 +3521,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5951</v>
       </c>
@@ -3484,7 +3535,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>6926</v>
       </c>
@@ -3498,7 +3549,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>9087</v>
       </c>
@@ -3512,25 +3563,37 @@
         <v>407</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="23" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B22" s="23"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>410</v>
       </c>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D25">
@@ -3545,12 +3608,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A14" sqref="A14:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3564,7 +3627,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>775</v>
       </c>
@@ -3578,7 +3641,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>794</v>
       </c>
@@ -3592,7 +3655,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2154</v>
       </c>
@@ -3606,7 +3669,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2672</v>
       </c>
@@ -3620,7 +3683,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2844</v>
       </c>
@@ -3634,7 +3697,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3220</v>
       </c>
@@ -3648,7 +3711,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3523</v>
       </c>
@@ -3662,7 +3725,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4492</v>
       </c>
@@ -3676,7 +3739,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4585</v>
       </c>
@@ -3690,7 +3753,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5707</v>
       </c>
@@ -3704,7 +3767,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5883</v>
       </c>
@@ -3718,7 +3781,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>8543</v>
       </c>
@@ -3732,25 +3795,37 @@
         <v>149</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>159</v>
       </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D17">
@@ -3765,12 +3840,12 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A5" sqref="A5:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3784,7 +3859,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>619</v>
       </c>
@@ -3798,7 +3873,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>896</v>
       </c>
@@ -3812,7 +3887,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2184</v>
       </c>
@@ -3826,25 +3901,33 @@
         <v>179</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="23"/>
+      <c r="C6" s="23"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>181</v>
       </c>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D8">
@@ -3859,12 +3942,12 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A10" sqref="A10:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -3878,7 +3961,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>191</v>
       </c>
@@ -3892,7 +3975,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>657</v>
       </c>
@@ -3906,7 +3989,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1778</v>
       </c>
@@ -3920,7 +4003,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2073</v>
       </c>
@@ -3934,7 +4017,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2152</v>
       </c>
@@ -3948,7 +4031,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2367</v>
       </c>
@@ -3962,7 +4045,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2532</v>
       </c>
@@ -3976,7 +4059,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4161</v>
       </c>
@@ -3990,25 +4073,37 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="23" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
         <v>193</v>
       </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D13">
@@ -4022,13 +4117,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A37" sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61:D64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4042,7 +4137,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>331</v>
       </c>
@@ -4056,7 +4151,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>355</v>
       </c>
@@ -4070,7 +4165,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>433</v>
       </c>
@@ -4084,7 +4179,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>643</v>
       </c>
@@ -4098,7 +4193,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1064</v>
       </c>
@@ -4112,7 +4207,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1104</v>
       </c>
@@ -4126,7 +4221,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1106</v>
       </c>
@@ -4140,7 +4235,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1391</v>
       </c>
@@ -4154,7 +4249,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1722</v>
       </c>
@@ -4168,7 +4263,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1875</v>
       </c>
@@ -4182,7 +4277,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>1914</v>
       </c>
@@ -4196,7 +4291,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1947</v>
       </c>
@@ -4210,7 +4305,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>1974</v>
       </c>
@@ -4224,7 +4319,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2342</v>
       </c>
@@ -4238,7 +4333,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2351</v>
       </c>
@@ -4252,7 +4347,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2433</v>
       </c>
@@ -4266,7 +4361,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2478</v>
       </c>
@@ -4280,7 +4375,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2538</v>
       </c>
@@ -4294,7 +4389,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>2666</v>
       </c>
@@ -4308,7 +4403,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>2706</v>
       </c>
@@ -4322,7 +4417,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>2902</v>
       </c>
@@ -4336,7 +4431,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2924</v>
       </c>
@@ -4350,7 +4445,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2972</v>
       </c>
@@ -4364,7 +4459,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>3045</v>
       </c>
@@ -4378,7 +4473,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>3144</v>
       </c>
@@ -4392,7 +4487,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>3187</v>
       </c>
@@ -4406,7 +4501,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>3433</v>
       </c>
@@ -4420,7 +4515,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>3537</v>
       </c>
@@ -4434,7 +4529,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>3851</v>
       </c>
@@ -4448,7 +4543,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>4005</v>
       </c>
@@ -4462,7 +4557,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>4072</v>
       </c>
@@ -4476,7 +4571,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4128</v>
       </c>
@@ -4490,7 +4585,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>4337</v>
       </c>
@@ -4504,7 +4599,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>4592</v>
       </c>
@@ -4518,7 +4613,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>4648</v>
       </c>
@@ -4532,7 +4627,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>4691</v>
       </c>
@@ -4546,7 +4641,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>4956</v>
       </c>
@@ -4560,7 +4655,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>5247</v>
       </c>
@@ -4574,7 +4669,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>5292</v>
       </c>
@@ -4588,7 +4683,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>5470</v>
       </c>
@@ -4602,7 +4697,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>5625</v>
       </c>
@@ -4616,7 +4711,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>5710</v>
       </c>
@@ -4630,7 +4725,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>6074</v>
       </c>
@@ -4644,7 +4739,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>6520</v>
       </c>
@@ -4658,7 +4753,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>6613</v>
       </c>
@@ -4672,7 +4767,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>6843</v>
       </c>
@@ -4686,7 +4781,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>7025</v>
       </c>
@@ -4700,7 +4795,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>7316</v>
       </c>
@@ -4714,7 +4809,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>7400</v>
       </c>
@@ -4728,7 +4823,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>7752</v>
       </c>
@@ -4742,7 +4837,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>7876</v>
       </c>
@@ -4756,7 +4851,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>8158</v>
       </c>
@@ -4770,7 +4865,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>8244</v>
       </c>
@@ -4784,7 +4879,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>8543</v>
       </c>
@@ -4798,7 +4893,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>9181</v>
       </c>
@@ -4812,7 +4907,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>10446</v>
       </c>
@@ -4826,7 +4921,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>13688</v>
       </c>
@@ -4840,7 +4935,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>13780</v>
       </c>
@@ -4854,7 +4949,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>16605</v>
       </c>
@@ -4868,25 +4963,37 @@
         <v>292</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="23" t="s">
         <v>351</v>
       </c>
+      <c r="B64" s="23"/>
+      <c r="C64" s="23"/>
+      <c r="D64" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D64">
@@ -4901,12 +5008,12 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A18" sqref="A18:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -4920,7 +5027,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1179</v>
       </c>
@@ -4934,7 +5041,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2073</v>
       </c>
@@ -4948,7 +5055,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2330</v>
       </c>
@@ -4962,7 +5069,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2489</v>
       </c>
@@ -4976,7 +5083,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2723</v>
       </c>
@@ -4990,7 +5097,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2988</v>
       </c>
@@ -5004,7 +5111,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3055</v>
       </c>
@@ -5018,7 +5125,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3060</v>
       </c>
@@ -5032,7 +5139,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4700</v>
       </c>
@@ -5046,7 +5153,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4925</v>
       </c>
@@ -5060,7 +5167,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5863</v>
       </c>
@@ -5074,7 +5181,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>6335</v>
       </c>
@@ -5088,7 +5195,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>11127</v>
       </c>
@@ -5102,7 +5209,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>12267</v>
       </c>
@@ -5116,7 +5223,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>12867</v>
       </c>
@@ -5130,7 +5237,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>17372</v>
       </c>
@@ -5144,25 +5251,33 @@
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
         <v>371</v>
       </c>
+      <c r="B21" s="23"/>
+      <c r="C21" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D21">
@@ -5177,12 +5292,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A14" sqref="A14:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5196,7 +5311,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>563</v>
       </c>
@@ -5210,7 +5325,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>595</v>
       </c>
@@ -5224,7 +5339,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>611</v>
       </c>
@@ -5238,7 +5353,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>635</v>
       </c>
@@ -5252,7 +5367,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1018</v>
       </c>
@@ -5266,7 +5381,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1691</v>
       </c>
@@ -5280,7 +5395,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1739</v>
       </c>
@@ -5294,7 +5409,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3580</v>
       </c>
@@ -5308,7 +5423,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3833</v>
       </c>
@@ -5322,7 +5437,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>4243</v>
       </c>
@@ -5336,7 +5451,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>5113</v>
       </c>
@@ -5350,7 +5465,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>7301</v>
       </c>
@@ -5364,25 +5479,33 @@
         <v>416</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>426</v>
       </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D17">
@@ -5396,17 +5519,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5420,7 +5543,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1787</v>
       </c>
@@ -5434,7 +5557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1986</v>
       </c>
@@ -5448,7 +5571,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2003</v>
       </c>
@@ -5462,7 +5585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2223</v>
       </c>
@@ -5476,7 +5599,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2260</v>
       </c>
@@ -5490,7 +5613,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2578</v>
       </c>
@@ -5504,7 +5627,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2775</v>
       </c>
@@ -5518,7 +5641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2817</v>
       </c>
@@ -5532,7 +5655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2903</v>
       </c>
@@ -5546,7 +5669,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2939</v>
       </c>
@@ -5560,7 +5683,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3081</v>
       </c>
@@ -5574,7 +5697,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3249</v>
       </c>
@@ -5588,7 +5711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3491</v>
       </c>
@@ -5602,7 +5725,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4124</v>
       </c>
@@ -5616,7 +5739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4145</v>
       </c>
@@ -5630,7 +5753,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4434</v>
       </c>
@@ -5644,7 +5767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4649</v>
       </c>
@@ -5658,7 +5781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4836</v>
       </c>
@@ -5672,7 +5795,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5749</v>
       </c>
@@ -5686,7 +5809,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>6426</v>
       </c>
@@ -5700,7 +5823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6623</v>
       </c>
@@ -5714,7 +5837,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>6898</v>
       </c>
@@ -5728,7 +5851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>7305</v>
       </c>
@@ -5742,7 +5865,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>8180</v>
       </c>
@@ -5756,7 +5879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>9874</v>
       </c>
@@ -5770,7 +5893,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>10193</v>
       </c>
@@ -5784,7 +5907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>13278</v>
       </c>
@@ -5798,7 +5921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>13756</v>
       </c>
@@ -5812,7 +5935,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>13759</v>
       </c>
@@ -5826,25 +5949,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B31" s="23"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="23" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B32" s="23"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="B33" s="23"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
         <v>29</v>
       </c>
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D34">
@@ -5859,12 +5994,12 @@
   <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A7" sqref="A1:A1048576"/>
+      <selection activeCell="A41" sqref="A41:D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -5878,7 +6013,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1156</v>
       </c>
@@ -5892,7 +6027,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1443</v>
       </c>
@@ -5906,7 +6041,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1549</v>
       </c>
@@ -5920,7 +6055,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1621</v>
       </c>
@@ -5934,7 +6069,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1771</v>
       </c>
@@ -5948,7 +6083,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2513</v>
       </c>
@@ -5962,7 +6097,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2565</v>
       </c>
@@ -5976,7 +6111,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>2657</v>
       </c>
@@ -5990,7 +6125,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2728</v>
       </c>
@@ -6004,7 +6139,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2839</v>
       </c>
@@ -6018,7 +6153,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2946</v>
       </c>
@@ -6032,7 +6167,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2956</v>
       </c>
@@ -6046,7 +6181,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3159</v>
       </c>
@@ -6060,7 +6195,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3226</v>
       </c>
@@ -6074,7 +6209,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3278</v>
       </c>
@@ -6088,7 +6223,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3302</v>
       </c>
@@ -6102,7 +6237,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3381</v>
       </c>
@@ -6116,7 +6251,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3419</v>
       </c>
@@ -6130,7 +6265,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3512</v>
       </c>
@@ -6144,7 +6279,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>4517</v>
       </c>
@@ -6158,7 +6293,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>4579</v>
       </c>
@@ -6172,7 +6307,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>4932</v>
       </c>
@@ -6186,7 +6321,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>4943</v>
       </c>
@@ -6200,7 +6335,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>5341</v>
       </c>
@@ -6214,7 +6349,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5352</v>
       </c>
@@ -6228,7 +6363,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>5390</v>
       </c>
@@ -6242,7 +6377,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>5545</v>
       </c>
@@ -6256,7 +6391,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>5617</v>
       </c>
@@ -6270,7 +6405,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>5862</v>
       </c>
@@ -6284,7 +6419,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>5934</v>
       </c>
@@ -6298,7 +6433,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>6202</v>
       </c>
@@ -6312,7 +6447,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>6318</v>
       </c>
@@ -6326,7 +6461,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>6329</v>
       </c>
@@ -6340,7 +6475,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6461</v>
       </c>
@@ -6354,7 +6489,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7219</v>
       </c>
@@ -6368,7 +6503,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>9846</v>
       </c>
@@ -6382,7 +6517,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>11670</v>
       </c>
@@ -6396,7 +6531,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>14968</v>
       </c>
@@ -6410,7 +6545,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>17589</v>
       </c>
@@ -6424,25 +6559,37 @@
         <v>272</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="23" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B42" s="23"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="23" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
         <v>288</v>
       </c>
+      <c r="B44" s="23"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D44">
@@ -6457,12 +6604,12 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A24" sqref="A24:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6476,7 +6623,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>627</v>
       </c>
@@ -6490,7 +6637,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>633</v>
       </c>
@@ -6504,7 +6651,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1065</v>
       </c>
@@ -6518,7 +6665,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1411</v>
       </c>
@@ -6532,7 +6679,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1496</v>
       </c>
@@ -6546,7 +6693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1584</v>
       </c>
@@ -6560,7 +6707,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1872</v>
       </c>
@@ -6574,7 +6721,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1940</v>
       </c>
@@ -6588,7 +6735,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2370</v>
       </c>
@@ -6602,7 +6749,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2972</v>
       </c>
@@ -6616,7 +6763,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3415</v>
       </c>
@@ -6630,7 +6777,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3473</v>
       </c>
@@ -6644,7 +6791,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3972</v>
       </c>
@@ -6658,7 +6805,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4138</v>
       </c>
@@ -6672,7 +6819,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4238</v>
       </c>
@@ -6686,7 +6833,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>5665</v>
       </c>
@@ -6700,7 +6847,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>6525</v>
       </c>
@@ -6714,7 +6861,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>6578</v>
       </c>
@@ -6728,7 +6875,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>7121</v>
       </c>
@@ -6742,7 +6889,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>8520</v>
       </c>
@@ -6756,7 +6903,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>9680</v>
       </c>
@@ -6770,7 +6917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>12482</v>
       </c>
@@ -6784,25 +6931,37 @@
         <v>111</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
         <v>129</v>
       </c>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D27">
@@ -6817,12 +6976,12 @@
   <dimension ref="A1:D63"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A40" sqref="A1:A1048576"/>
+      <selection activeCell="A60" sqref="A60:D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -6836,7 +6995,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>401</v>
       </c>
@@ -6850,7 +7009,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1056</v>
       </c>
@@ -6864,7 +7023,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1887</v>
       </c>
@@ -6878,7 +7037,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1931</v>
       </c>
@@ -6892,7 +7051,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2341</v>
       </c>
@@ -6906,7 +7065,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2613</v>
       </c>
@@ -6920,7 +7079,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2919</v>
       </c>
@@ -6934,7 +7093,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3302</v>
       </c>
@@ -6948,7 +7107,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3321</v>
       </c>
@@ -6962,7 +7121,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3411</v>
       </c>
@@ -6976,7 +7135,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3630</v>
       </c>
@@ -6990,7 +7149,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3639</v>
       </c>
@@ -7004,7 +7163,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3721</v>
       </c>
@@ -7018,7 +7177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>4024</v>
       </c>
@@ -7032,7 +7191,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>4082</v>
       </c>
@@ -7046,7 +7205,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4140</v>
       </c>
@@ -7060,7 +7219,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>4945</v>
       </c>
@@ -7074,7 +7233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>5103</v>
       </c>
@@ -7088,7 +7247,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5449</v>
       </c>
@@ -7102,7 +7261,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>6036</v>
       </c>
@@ -7116,7 +7275,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6074</v>
       </c>
@@ -7130,7 +7289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>6124</v>
       </c>
@@ -7144,7 +7303,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>6251</v>
       </c>
@@ -7158,7 +7317,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>6391</v>
       </c>
@@ -7172,7 +7331,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>6904</v>
       </c>
@@ -7186,7 +7345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6996</v>
       </c>
@@ -7200,7 +7359,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>7169</v>
       </c>
@@ -7214,7 +7373,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>7287</v>
       </c>
@@ -7228,7 +7387,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>7411</v>
       </c>
@@ -7242,7 +7401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>7552</v>
       </c>
@@ -7256,7 +7415,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>7564</v>
       </c>
@@ -7270,7 +7429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>7691</v>
       </c>
@@ -7284,7 +7443,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>7781</v>
       </c>
@@ -7298,7 +7457,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>7782</v>
       </c>
@@ -7312,7 +7471,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7800</v>
       </c>
@@ -7326,7 +7485,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8168</v>
       </c>
@@ -7340,7 +7499,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>8441</v>
       </c>
@@ -7354,7 +7513,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>8927</v>
       </c>
@@ -7368,7 +7527,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>9141</v>
       </c>
@@ -7382,7 +7541,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>9155</v>
       </c>
@@ -7396,7 +7555,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>9356</v>
       </c>
@@ -7410,7 +7569,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>9364</v>
       </c>
@@ -7424,7 +7583,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>9498</v>
       </c>
@@ -7438,7 +7597,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>9783</v>
       </c>
@@ -7452,7 +7611,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>9786</v>
       </c>
@@ -7466,7 +7625,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>9798</v>
       </c>
@@ -7480,7 +7639,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>9853</v>
       </c>
@@ -7494,7 +7653,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>9925</v>
       </c>
@@ -7508,7 +7667,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>10150</v>
       </c>
@@ -7522,7 +7681,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>10584</v>
       </c>
@@ -7536,7 +7695,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>11188</v>
       </c>
@@ -7550,7 +7709,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>12532</v>
       </c>
@@ -7564,7 +7723,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>13319</v>
       </c>
@@ -7578,7 +7737,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>13386</v>
       </c>
@@ -7592,7 +7751,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>13853</v>
       </c>
@@ -7606,7 +7765,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>13944</v>
       </c>
@@ -7620,7 +7779,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>15243</v>
       </c>
@@ -7634,7 +7793,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>17083</v>
       </c>
@@ -7648,25 +7807,37 @@
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
+      <c r="B60" s="23"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+      <c r="B61" s="23"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="B62" s="23"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="23" t="s">
         <v>103</v>
       </c>
+      <c r="B63" s="23"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D63">
@@ -7681,12 +7852,12 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A7" sqref="A7:D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -7700,7 +7871,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>945</v>
       </c>
@@ -7714,7 +7885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1131</v>
       </c>
@@ -7728,7 +7899,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1182</v>
       </c>
@@ -7742,7 +7913,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>2552</v>
       </c>
@@ -7756,7 +7927,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>6442</v>
       </c>
@@ -7770,25 +7941,37 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
         <v>41</v>
       </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D10">
@@ -7803,12 +7986,12 @@
   <dimension ref="A1:D56"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+      <selection activeCell="A53" sqref="A53:D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -7822,7 +8005,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>2694</v>
       </c>
@@ -7836,7 +8019,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1321</v>
       </c>
@@ -7850,7 +8033,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>8683</v>
       </c>
@@ -7864,7 +8047,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>6272</v>
       </c>
@@ -7878,7 +8061,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3982</v>
       </c>
@@ -7892,7 +8075,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>2209</v>
       </c>
@@ -7906,7 +8089,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1985</v>
       </c>
@@ -7920,7 +8103,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1657</v>
       </c>
@@ -7934,7 +8117,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>4334</v>
       </c>
@@ -7948,7 +8131,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>2507</v>
       </c>
@@ -7962,7 +8145,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2205</v>
       </c>
@@ -7976,7 +8159,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>1929</v>
       </c>
@@ -7990,7 +8173,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>113</v>
       </c>
@@ -8004,7 +8187,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2480</v>
       </c>
@@ -8018,7 +8201,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>7342</v>
       </c>
@@ -8032,7 +8215,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>4851</v>
       </c>
@@ -8046,7 +8229,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>2976</v>
       </c>
@@ -8060,7 +8243,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>2345</v>
       </c>
@@ -8074,7 +8257,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>5027</v>
       </c>
@@ -8088,7 +8271,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>476</v>
       </c>
@@ -8102,7 +8285,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1174</v>
       </c>
@@ -8116,7 +8299,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>787</v>
       </c>
@@ -8130,7 +8313,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>700</v>
       </c>
@@ -8144,7 +8327,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>1010</v>
       </c>
@@ -8158,7 +8341,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>635</v>
       </c>
@@ -8172,7 +8355,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>586</v>
       </c>
@@ -8186,7 +8369,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>574</v>
       </c>
@@ -8200,7 +8383,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>409</v>
       </c>
@@ -8214,7 +8397,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>835</v>
       </c>
@@ -8228,7 +8411,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1129</v>
       </c>
@@ -8242,7 +8425,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>457</v>
       </c>
@@ -8256,7 +8439,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>571</v>
       </c>
@@ -8270,7 +8453,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>523</v>
       </c>
@@ -8284,7 +8467,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>1156</v>
       </c>
@@ -8298,7 +8481,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>874</v>
       </c>
@@ -8312,7 +8495,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>1043</v>
       </c>
@@ -8326,7 +8509,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>665</v>
       </c>
@@ -8340,7 +8523,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>663</v>
       </c>
@@ -8354,7 +8537,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>877</v>
       </c>
@@ -8368,7 +8551,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>1548</v>
       </c>
@@ -8382,7 +8565,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>1458</v>
       </c>
@@ -8396,7 +8579,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>1792</v>
       </c>
@@ -8410,7 +8593,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1409</v>
       </c>
@@ -8424,7 +8607,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>1299</v>
       </c>
@@ -8438,7 +8621,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>1353</v>
       </c>
@@ -8452,7 +8635,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>1521</v>
       </c>
@@ -8466,7 +8649,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>1226</v>
       </c>
@@ -8480,7 +8663,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>2828</v>
       </c>
@@ -8494,7 +8677,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>2348</v>
       </c>
@@ -8508,7 +8691,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>666</v>
       </c>
@@ -8522,7 +8705,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>1940</v>
       </c>
@@ -8536,25 +8719,37 @@
         <v>247</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="23" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="23" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
         <v>248</v>
       </c>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8566,12 +8761,12 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A23" sqref="A23:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8585,7 +8780,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>345</v>
       </c>
@@ -8599,7 +8794,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>368</v>
       </c>
@@ -8613,7 +8808,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>690</v>
       </c>
@@ -8627,7 +8822,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>702</v>
       </c>
@@ -8641,7 +8836,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>985</v>
       </c>
@@ -8655,7 +8850,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>992</v>
       </c>
@@ -8669,7 +8864,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1131</v>
       </c>
@@ -8683,7 +8878,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1471</v>
       </c>
@@ -8697,7 +8892,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1777</v>
       </c>
@@ -8711,7 +8906,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1942</v>
       </c>
@@ -8725,7 +8920,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2102</v>
       </c>
@@ -8739,7 +8934,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>2111</v>
       </c>
@@ -8753,7 +8948,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>2761</v>
       </c>
@@ -8767,7 +8962,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2847</v>
       </c>
@@ -8781,7 +8976,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2879</v>
       </c>
@@ -8795,7 +8990,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3187</v>
       </c>
@@ -8809,7 +9004,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3396</v>
       </c>
@@ -8823,7 +9018,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>4085</v>
       </c>
@@ -8837,7 +9032,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>4970</v>
       </c>
@@ -8851,7 +9046,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>6395</v>
       </c>
@@ -8865,7 +9060,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>6513</v>
       </c>
@@ -8879,25 +9074,37 @@
         <v>459</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="23" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
         <v>465</v>
       </c>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D26">
@@ -8912,12 +9119,12 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A14" sqref="A14:D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>34</v>
       </c>
@@ -8931,7 +9138,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1522</v>
       </c>
@@ -8945,7 +9152,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2706</v>
       </c>
@@ -8959,7 +9166,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2828</v>
       </c>
@@ -8973,7 +9180,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3182</v>
       </c>
@@ -8987,7 +9194,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3269</v>
       </c>
@@ -9001,7 +9208,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3376</v>
       </c>
@@ -9015,7 +9222,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3468</v>
       </c>
@@ -9029,7 +9236,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>4818</v>
       </c>
@@ -9043,7 +9250,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>5004</v>
       </c>
@@ -9057,7 +9264,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>5777</v>
       </c>
@@ -9071,7 +9278,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>6954</v>
       </c>
@@ -9085,7 +9292,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>7938</v>
       </c>
@@ -9099,25 +9306,37 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
         <v>441</v>
       </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
     </row>
   </sheetData>
   <sortState ref="A2:D17">
